--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8137380443288</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H2">
-        <v>11.8137380443288</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I2">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J2">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>36.23834879208971</v>
+        <v>194.30369309664</v>
       </c>
       <c r="R2">
-        <v>36.23834879208971</v>
+        <v>1748.73323786976</v>
       </c>
       <c r="S2">
-        <v>0.03655127341165351</v>
+        <v>0.1097341887193772</v>
       </c>
       <c r="T2">
-        <v>0.03655127341165351</v>
+        <v>0.1097341887193772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8137380443288</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H3">
-        <v>11.8137380443288</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I3">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J3">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>105.3959670177649</v>
+        <v>195.2139623981089</v>
       </c>
       <c r="R3">
-        <v>105.3959670177649</v>
+        <v>1756.92566158298</v>
       </c>
       <c r="S3">
-        <v>0.1063060800328975</v>
+        <v>0.1102482688262497</v>
       </c>
       <c r="T3">
-        <v>0.1063060800328975</v>
+        <v>0.1102482688262497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8137380443288</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H4">
-        <v>11.8137380443288</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I4">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J4">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>4.675105922941651</v>
+        <v>9.374131871893887</v>
       </c>
       <c r="R4">
-        <v>4.675105922941651</v>
+        <v>84.36718684704499</v>
       </c>
       <c r="S4">
-        <v>0.004715476298279403</v>
+        <v>0.005294097809037066</v>
       </c>
       <c r="T4">
-        <v>0.004715476298279403</v>
+        <v>0.005294097809037066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.5784834568441</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H5">
-        <v>24.5784834568441</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I5">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J5">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>75.39388912701489</v>
+        <v>221.388729112512</v>
       </c>
       <c r="R5">
-        <v>75.39388912701489</v>
+        <v>1992.498562012608</v>
       </c>
       <c r="S5">
-        <v>0.07604492883657409</v>
+        <v>0.1250306270230927</v>
       </c>
       <c r="T5">
-        <v>0.07604492883657409</v>
+        <v>0.1250306270230927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.5784834568441</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H6">
-        <v>24.5784834568441</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I6">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J6">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>219.2763223667196</v>
+        <v>222.4258857439204</v>
       </c>
       <c r="R6">
-        <v>219.2763223667196</v>
+        <v>2001.832971695284</v>
       </c>
       <c r="S6">
-        <v>0.2211698126068416</v>
+        <v>0.1256163675188532</v>
       </c>
       <c r="T6">
-        <v>0.2211698126068416</v>
+        <v>0.1256163675188532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.5784834568441</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H7">
-        <v>24.5784834568441</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I7">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J7">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>9.726558448718652</v>
+        <v>10.68084249237344</v>
       </c>
       <c r="R7">
-        <v>9.726558448718652</v>
+        <v>96.12758243136099</v>
       </c>
       <c r="S7">
-        <v>0.009810549019583038</v>
+        <v>0.00603207055440326</v>
       </c>
       <c r="T7">
-        <v>0.009810549019583038</v>
+        <v>0.006032070554403262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.6613904334641</v>
+        <v>49.812376</v>
       </c>
       <c r="H8">
-        <v>43.6613904334641</v>
+        <v>149.437128</v>
       </c>
       <c r="I8">
-        <v>0.545401879794171</v>
+        <v>0.518044379548987</v>
       </c>
       <c r="J8">
-        <v>0.545401879794171</v>
+        <v>0.5180443795489871</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N8">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O8">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P8">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q8">
-        <v>133.9302335415357</v>
+        <v>446.819403714048</v>
       </c>
       <c r="R8">
-        <v>133.9302335415357</v>
+        <v>4021.374633426432</v>
       </c>
       <c r="S8">
-        <v>0.1350867450487107</v>
+        <v>0.2523439672670061</v>
       </c>
       <c r="T8">
-        <v>0.1350867450487107</v>
+        <v>0.2523439672670061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.6613904334641</v>
+        <v>49.812376</v>
       </c>
       <c r="H9">
-        <v>43.6613904334641</v>
+        <v>149.437128</v>
       </c>
       <c r="I9">
-        <v>0.545401879794171</v>
+        <v>0.518044379548987</v>
       </c>
       <c r="J9">
-        <v>0.545401879794171</v>
+        <v>0.5180443795489871</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N9">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q9">
-        <v>389.523997299416</v>
+        <v>448.9126525865706</v>
       </c>
       <c r="R9">
-        <v>389.523997299416</v>
+        <v>4040.213873279136</v>
       </c>
       <c r="S9">
-        <v>0.3928876066450079</v>
+        <v>0.2535261422589131</v>
       </c>
       <c r="T9">
-        <v>0.3928876066450079</v>
+        <v>0.2535261422589132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.6613904334641</v>
+        <v>49.812376</v>
       </c>
       <c r="H10">
-        <v>43.6613904334641</v>
+        <v>149.437128</v>
       </c>
       <c r="I10">
-        <v>0.545401879794171</v>
+        <v>0.518044379548987</v>
       </c>
       <c r="J10">
-        <v>0.545401879794171</v>
+        <v>0.5180443795489871</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N10">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q10">
-        <v>17.27832666116588</v>
+        <v>21.55668760888267</v>
       </c>
       <c r="R10">
-        <v>17.27832666116588</v>
+        <v>194.010188479944</v>
       </c>
       <c r="S10">
-        <v>0.01742752810045234</v>
+        <v>0.0121742700230678</v>
       </c>
       <c r="T10">
-        <v>0.01742752810045234</v>
+        <v>0.0121742700230678</v>
       </c>
     </row>
   </sheetData>
